--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.400831</v>
+        <v>1.911813333333333</v>
       </c>
       <c r="N2">
-        <v>7.202492999999999</v>
+        <v>5.73544</v>
       </c>
       <c r="O2">
-        <v>0.128462424655221</v>
+        <v>0.0369891942311654</v>
       </c>
       <c r="P2">
-        <v>0.128462424655221</v>
+        <v>0.03698919423116541</v>
       </c>
       <c r="Q2">
-        <v>1.313541856443</v>
+        <v>1.045990673662222</v>
       </c>
       <c r="R2">
-        <v>11.821876707987</v>
+        <v>9.41391606296</v>
       </c>
       <c r="S2">
-        <v>0.128462424655221</v>
+        <v>0.0369891942311654</v>
       </c>
       <c r="T2">
-        <v>0.128462424655221</v>
+        <v>0.03698919423116541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.808373</v>
       </c>
       <c r="O3">
-        <v>0.01441800160108659</v>
+        <v>0.005213386576832793</v>
       </c>
       <c r="P3">
-        <v>0.01441800160108659</v>
+        <v>0.005213386576832794</v>
       </c>
       <c r="Q3">
         <v>0.1474255887674444</v>
@@ -632,10 +632,10 @@
         <v>1.326830298907</v>
       </c>
       <c r="S3">
-        <v>0.01441800160108659</v>
+        <v>0.005213386576832793</v>
       </c>
       <c r="T3">
-        <v>0.01441800160108659</v>
+        <v>0.005213386576832794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.018686</v>
+        <v>49.50445433333334</v>
       </c>
       <c r="N4">
-        <v>48.056058</v>
+        <v>148.513363</v>
       </c>
       <c r="O4">
-        <v>0.8571195737436924</v>
+        <v>0.9577974191920018</v>
       </c>
       <c r="P4">
-        <v>0.8571195737436924</v>
+        <v>0.9577974191920018</v>
       </c>
       <c r="Q4">
-        <v>8.764138144758</v>
+        <v>27.08486055336856</v>
       </c>
       <c r="R4">
-        <v>78.877243302822</v>
+        <v>243.763744980317</v>
       </c>
       <c r="S4">
-        <v>0.8571195737436924</v>
+        <v>0.9577974191920018</v>
       </c>
       <c r="T4">
-        <v>0.8571195737436924</v>
+        <v>0.9577974191920018</v>
       </c>
     </row>
   </sheetData>
